--- a/Data/Processed/Angiosperms/missing_powo_ipni/Anacardiaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Anacardiaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6402,7 +6402,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -6480,7 +6480,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -6490,7 +6490,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flora 72 (n. s. 47): 76. 1889 </t>
+          <t>Flora 72 (n. s. 47): 76. 1889</t>
         </is>
       </c>
       <c r="J110" t="b">
